--- a/TUCres.xlsx
+++ b/TUCres.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aris\Documents\Projects\TUChome\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aris\Projects\TUChome\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE977983-2293-4D8B-B611-88363B973329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAD1445B-4D2E-45AA-AEED-31393E8C70E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="504">
   <si>
     <t>α/α</t>
   </si>
@@ -1532,6 +1532,12 @@
   </si>
   <si>
     <t>Mail</t>
+  </si>
+  <si>
+    <t>Τηλέφωνο2</t>
+  </si>
+  <si>
+    <t>Τηλέφωνο3</t>
   </si>
 </sst>
 </file>
@@ -1938,7 +1944,7 @@
     <tableColumn id="2" xr3:uid="{787E22EA-B9B5-4548-9F7B-B03CC4A7C9C1}" name="Όνομα" dataDxfId="17"/>
     <tableColumn id="3" xr3:uid="{C8E6A4AB-13D0-4549-9A53-039C375C2BC4}" name="Αριθμός Μητρώου" dataDxfId="16"/>
     <tableColumn id="4" xr3:uid="{71521801-2ABF-4BB8-A726-07E6554F4A6A}" name="Σχολή" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{017E9BD4-81A7-45A6-8A92-7A9951631D62}" name="Τηλέφωνο" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{017E9BD4-81A7-45A6-8A92-7A9951631D62}" name="Τηλέφωνο2" dataDxfId="14"/>
     <tableColumn id="6" xr3:uid="{E03A59AF-2326-4850-BDB5-448D769FD783}" name="Τηλέφωνο άλλου προσώπου" dataDxfId="13"/>
     <tableColumn id="7" xr3:uid="{8B03A673-54B2-4B12-A753-FDB046516F14}" name="Mail" dataDxfId="12"/>
     <tableColumn id="8" xr3:uid="{346F58D2-F434-42A4-8878-448C2CACFDE4}" name="Ακαδημαική ταυτότητα σε jpg" dataDxfId="11"/>
@@ -1955,7 +1961,7 @@
     <tableColumn id="2" xr3:uid="{0FAE0748-CB2A-4B2D-AA56-C0972359D867}" name="Όνομα" dataDxfId="6"/>
     <tableColumn id="3" xr3:uid="{5FC17C23-A5F4-4384-908A-91B0F1B5F685}" name="Αριθμός Μητρώου" dataDxfId="5"/>
     <tableColumn id="4" xr3:uid="{6ACDDFE2-DA90-40A6-8551-D0AA168EA889}" name="Σχολή" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{B6A24CEC-B203-479F-A1CB-BCF9982C52FD}" name="Τηλέφωνο" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{B6A24CEC-B203-479F-A1CB-BCF9982C52FD}" name="Τηλέφωνο3" dataDxfId="3"/>
     <tableColumn id="6" xr3:uid="{F65AC256-72C3-4617-A64B-8AB09E991665}" name="Τηλέφωνο άλλου προσώπου" dataDxfId="2"/>
     <tableColumn id="7" xr3:uid="{94F9EC2B-A4F7-4440-894F-BEE8C7AB7581}" name="Mail" dataDxfId="1"/>
     <tableColumn id="8" xr3:uid="{BBEBD0CD-6486-4187-88AF-1F838480772C}" name="Ακαδημαική ταυτότητα σε jpg" dataDxfId="0"/>
@@ -2229,9 +2235,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F51C053-75FC-4752-8299-A2C139F86652}">
   <dimension ref="A1:W181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q103" sqref="Q103"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2297,7 +2303,7 @@
         <v>17</v>
       </c>
       <c r="L1" s="14" t="s">
-        <v>11</v>
+        <v>502</v>
       </c>
       <c r="M1" s="15" t="s">
         <v>18</v>
@@ -2321,7 +2327,7 @@
         <v>17</v>
       </c>
       <c r="T1" s="17" t="s">
-        <v>11</v>
+        <v>503</v>
       </c>
       <c r="U1" s="18" t="s">
         <v>18</v>
